--- a/transformacion/staging/control_y_depuracion.xlsx
+++ b/transformacion/staging/control_y_depuracion.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'N°': 2, 'Actividad del Proyecto': 33, 'Total Ejecutado': 37, 'Componente PAM': 35, '¿A qué actor va dirigida?': 36, 'Número de Beneficiarios': 38, 'Entrega Dotación (SI / NO)': 34, 'Descripción de la Dotación Entregada': 38, 'Evidencia de la Actividad': 43, 'Evidencia_URL': 43, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 32, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'N°': 2, 'Actividad del Proyecto': 33, 'Total Ejecutado': 37, 'Componente PAM': 35, '¿A qué actor va dirigida?': 36, 'Número de Beneficiarios': 38, 'Entrega Dotación (SI / NO)': 34, 'Descripción de la Dotación Entregada': 38, 'Evidencia de la Actividad': 43, 'Evidencia_URL': 43, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 32, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 1, '¿A qué actor va dirigida?': 2, 'Número de Beneficiarios': 18, 'Entrega Dotación (SI / NO)': 5, 'Descripción de la Dotación Entregada': 80, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 1, '¿A qué actor va dirigida?': 2, 'Número de Beneficiarios': 18, 'Entrega Dotación (SI / NO)': 5, 'Descripción de la Dotación Entregada': 80, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 64, '¿A qué actor va dirigida?': 67, 'Número de Beneficiarios': 76, 'Entrega Dotación (SI / NO)': 72, 'Descripción de la Dotación Entregada': 85, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 64, '¿A qué actor va dirigida?': 67, 'Número de Beneficiarios': 76, 'Entrega Dotación (SI / NO)': 72, 'Descripción de la Dotación Entregada': 85, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'Actividad del Proyecto': 24, 'Total Ejecutado': 24, 'Componente PAM': 74, '¿A qué actor va dirigida?': 25, 'Número de Beneficiarios': 36, 'Entrega Dotación (SI / NO)': 24, 'Descripción de la Dotación Entregada': 87, 'Evidencia de la Actividad': 40, 'Evidencia_URL': 40, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 19, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 24, 'Total Ejecutado': 24, 'Componente PAM': 74, '¿A qué actor va dirigida?': 25, 'Número de Beneficiarios': 36, 'Entrega Dotación (SI / NO)': 24, 'Descripción de la Dotación Entregada': 87, 'Evidencia de la Actividad': 40, 'Evidencia_URL': 40, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 19, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 234, '# Administrativos Beneficiados': 234, '# Docentes Beneficiados': 228, '# Estudiantes Beneficiados': 234, '¿Recibió Asistencia Técnica?': 228, 'Modalidad de la Asistencia Técnica': 234, '¿Recibió Dotación?': 228, 'Dotación Recibida': 228, 'Hoja': 0, 'Nombre Proyecto': 25, 'FUENTES': 25, 'PROYECTOS': 25, 'BENEFICIARIOS': 25}</t>
+          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 234, '# Administrativos Beneficiados': 234, '# Docentes Beneficiados': 228, '# Estudiantes Beneficiados': 234, '¿Recibió Asistencia Técnica?': 228, 'Modalidad de la Asistencia Técnica': 234, '¿Recibió Dotación?': 228, 'Dotación Recibida': 228, 'Hoja': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -588,7 +588,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 2713, '# Administrativos Beneficiados': 3035, '# Docentes Beneficiados': 2142, '# Estudiantes Beneficiados': 2556, '¿Recibió Asistencia Técnica?': 3280, 'Modalidad de la Asistencia Técnica': 2308, '¿Recibió Dotación?': 1703, 'Dotación Recibida': 3143, 'Hoja': 0, '¿Asistencia Técnica?': 2829, '# AFA Beneficiadas': 3392, '¿Asistencia Técnica In Situ?': 2135, '¿IEO BENEFICIADA?': 3131, 'IEO Beneficiada': 3280, '# Padres, Madres y Cuidadores Beneficiados': 3281, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 2713, '# Administrativos Beneficiados': 3035, '# Docentes Beneficiados': 2142, '# Estudiantes Beneficiados': 2556, '¿Recibió Asistencia Técnica?': 3280, 'Modalidad de la Asistencia Técnica': 2308, '¿Recibió Dotación?': 1703, 'Dotación Recibida': 3143, 'Hoja': 0, '¿Asistencia Técnica?': 2829, '# AFA Beneficiadas': 3392, '¿Asistencia Técnica In Situ?': 2135, '¿IEO BENEFICIADA?': 3131, 'IEO Beneficiada': 3280, '# Padres, Madres y Cuidadores Beneficiados': 3281, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 1616, '# Administrativos Beneficiados': 1692, '# Docentes Beneficiados': 1589, '# Estudiantes Beneficiados': 1871, '¿Recibió Asistencia Técnica?': 1629, 'Modalidad de la Asistencia Técnica': 1629, '¿Recibió Dotación?': 1612, 'Dotación Recibida': 1777, 'Hoja': 0, '# Padres - Madres y Cuidadores': 2061, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 1616, '# Administrativos Beneficiados': 1692, '# Docentes Beneficiados': 1589, '# Estudiantes Beneficiados': 1871, '¿Recibió Asistencia Técnica?': 1629, 'Modalidad de la Asistencia Técnica': 1629, '¿Recibió Dotación?': 1612, 'Dotación Recibida': 1777, 'Hoja': 0, '# Padres - Madres y Cuidadores': 2061, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 447, '# Administrativos Beneficiados': 504, '# Docentes Beneficiados': 414, '# Estudiantes Beneficiados': 226, '¿Recibió Asistencia Técnica?': 307, 'Modalidad de la Asistencia Técnica': 415, '¿Recibió Dotación?': 209, 'Dotación Recibida': 415, 'Hoja': 0, '# Acudientes Beneficiados': 599, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 447, '# Administrativos Beneficiados': 504, '# Docentes Beneficiados': 414, '# Estudiantes Beneficiados': 226, '¿Recibió Asistencia Técnica?': 307, 'Modalidad de la Asistencia Técnica': 415, '¿Recibió Dotación?': 209, 'Dotación Recibida': 415, 'Hoja': 0, '# Acudientes Beneficiados': 599, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -749,7 +749,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'Nombre Proyecto_x': 6, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'Nombre Proyecto_x': 6, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'Nombre Proyecto_x': 0, 'Vigencia': 0, 'Código BPIN': 0, 'Código PI': 0, 'Total Ejecutado': 0, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'Nombre Proyecto_x': 0, 'Vigencia': 0, 'Código BPIN': 0, 'Código PI': 0, 'Total Ejecutado': 0, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'Nombre Proyecto_x': 0, 'Vigencia': 0, 'Código BPIN': 0, 'Código PI': 0, 'Total Ejecutado': 0, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'Nombre Proyecto_x': 0, 'Vigencia': 0, 'Código BPIN': 0, 'Código PI': 0, 'Total Ejecutado': 0, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'Nombre Proyecto_x': 1, 'Vigencia': 1, 'Código BPIN': 0, 'Código PI': 1, 'Total Ejecutado': 2, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0}</t>
+          <t>{'Nombre Proyecto_x': 1, 'Vigencia': 1, 'Código BPIN': 0, 'Código PI': 1, 'Total Ejecutado': 2, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D17" t="n">

--- a/transformacion/staging/control_y_depuracion.xlsx
+++ b/transformacion/staging/control_y_depuracion.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,15 +465,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fact_actividades_estrategias</t>
+          <t>stg_actividades_estrategias</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'N°': 2, 'Actividad del Proyecto': 33, 'Total Ejecutado': 37, 'Componente PAM': 35, '¿A qué actor va dirigida?': 36, 'Número de Beneficiarios': 38, 'Entrega Dotación (SI / NO)': 34, 'Descripción de la Dotación Entregada': 38, 'Evidencia de la Actividad': 43, 'Evidencia_URL': 43, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 32, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 28, '¿A qué actor va dirigida?': 28, 'Número de Beneficiarios': 28, 'Entrega Dotación (SI / NO)': 28, 'Descripción de la Dotación Entregada': 29, 'Evidencia de la Actividad': 32, 'Evidencia_URL': 32, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre_Proyecto': 26, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fact_actividades_poai_2024</t>
+          <t>stg_actividades_poai_2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 1, '¿A qué actor va dirigida?': 2, 'Número de Beneficiarios': 18, 'Entrega Dotación (SI / NO)': 5, 'Descripción de la Dotación Entregada': 80, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 1, '¿A qué actor va dirigida?': 2, 'Número de Beneficiarios': 18, 'Entrega Dotación (SI / NO)': 5, 'Descripción de la Dotación Entregada': 80, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre_Proyecto': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fact_actividades_poai_2025</t>
+          <t>stg_actividades_poai_2025</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 64, '¿A qué actor va dirigida?': 67, 'Número de Beneficiarios': 76, 'Entrega Dotación (SI / NO)': 72, 'Descripción de la Dotación Entregada': 85, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 64, '¿A qué actor va dirigida?': 67, 'Número de Beneficiarios': 76, 'Entrega Dotación (SI / NO)': 72, 'Descripción de la Dotación Entregada': 85, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre_Proyecto': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -534,7 +534,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fact_actividades_regalias</t>
+          <t>stg_actividades_regalias</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'Actividad del Proyecto': 24, 'Total Ejecutado': 24, 'Componente PAM': 74, '¿A qué actor va dirigida?': 25, 'Número de Beneficiarios': 36, 'Entrega Dotación (SI / NO)': 24, 'Descripción de la Dotación Entregada': 87, 'Evidencia de la Actividad': 40, 'Evidencia_URL': 40, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre Proyecto_x': 19, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 24, 'Total Ejecutado': 24, 'Componente PAM': 74, '¿A qué actor va dirigida?': 25, 'Número de Beneficiarios': 36, 'Entrega Dotación (SI / NO)': 24, 'Descripción de la Dotación Entregada': 87, 'Evidencia de la Actividad': 40, 'Evidencia_URL': 40, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre_Proyecto': 19, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -557,7 +557,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fact_beneficiarios_estrategias</t>
+          <t>stg_beneficiarios_estrategias</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -580,7 +580,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fact_beneficiarios_poai_2024</t>
+          <t>stg_beneficiarios_poai_2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -603,7 +603,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fact_beneficiarios_poai_2025</t>
+          <t>stg_beneficiarios_poai_2025</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -626,7 +626,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fact_beneficiarios_regalias</t>
+          <t>stg_beneficiarios_regalias</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -649,7 +649,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fact_fuente_estrategias</t>
+          <t>stg_fuente_estrategias</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -672,7 +672,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fact_fuente_poai_2024</t>
+          <t>stg_fuente_poai_2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -695,7 +695,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fact_fuente_poai_2025</t>
+          <t>stg_fuente_poai_2025</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -718,7 +718,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fact_fuente_regalias</t>
+          <t>stg_fuente_regalias</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -741,15 +741,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fact_proyectos_estrategias</t>
+          <t>stg_metas_estrategias</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'Nombre Proyecto_x': 6, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -764,53 +764,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fact_proyectos_poai_2024</t>
+          <t>stg_metas_poai_2024</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'Nombre Proyecto_x': 0, 'Vigencia': 0, 'Código BPIN': 0, 'Código PI': 0, 'Total Ejecutado': 0, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'ID_Meta': 0, 'Hoja': 0, 'Nombre_Proyecto': 0, 'Meta': 0, 'Descripción': 0}</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>PK no encontrada</t>
-        </is>
+      <c r="E15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fact_proyectos_poai_2025</t>
+          <t>stg_metas_poai_2025</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'Nombre Proyecto_x': 0, 'Vigencia': 0, 'Código BPIN': 0, 'Código PI': 0, 'Total Ejecutado': 0, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'ID_Meta': 0, 'Hoja': 0, 'Nombre_Proyecto': 0, 'Meta': 0, 'Descripción': 0}</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>PK no encontrada</t>
-        </is>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fact_proyectos_regalias</t>
+          <t>stg_metas_regalias</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -818,13 +814,103 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'Nombre Proyecto_x': 1, 'Vigencia': 1, 'Código BPIN': 0, 'Código PI': 1, 'Total Ejecutado': 2, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto_y': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'ID_Meta': 0, 'Hoja': 0, 'Nombre_Proyecto': 1, 'Meta': 0, 'Descripción': 0}</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>stg_proyectos_estrategias</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'Nombre_Proyecto': 5, 'Hoja': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PK no encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>stg_proyectos_poai_2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'Nombre_Proyecto': 0, 'Vigencia': 0, 'Código BPIN': 0, 'Código PI': 0, 'Total Ejecutado': 0, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PK no encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>stg_proyectos_poai_2025</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'Nombre_Proyecto': 0, 'Vigencia': 0, 'Código BPIN': 0, 'Código PI': 0, 'Total Ejecutado': 0, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PK no encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>stg_proyectos_regalias</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'Nombre_Proyecto': 1, 'Vigencia': 1, 'Código BPIN': 0, 'Código PI': 1, 'Total Ejecutado': 2, 'RECURSOS': 0, 'Hoja': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>PK no encontrada</t>
         </is>
@@ -859,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,14 +978,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fact_actividades_estrategias</t>
+          <t>stg_actividades_estrategias</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -908,7 +994,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fact_actividades_poai_2024</t>
+          <t>stg_actividades_poai_2024</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -924,7 +1010,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fact_actividades_poai_2025</t>
+          <t>stg_actividades_poai_2025</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -940,7 +1026,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fact_actividades_regalias</t>
+          <t>stg_actividades_regalias</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -956,7 +1042,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fact_beneficiarios_estrategias</t>
+          <t>stg_beneficiarios_estrategias</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -972,7 +1058,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fact_beneficiarios_poai_2024</t>
+          <t>stg_beneficiarios_poai_2024</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -988,7 +1074,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fact_beneficiarios_poai_2025</t>
+          <t>stg_beneficiarios_poai_2025</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1004,7 +1090,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fact_beneficiarios_regalias</t>
+          <t>stg_beneficiarios_regalias</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1020,7 +1106,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fact_fuente_estrategias</t>
+          <t>stg_fuente_estrategias</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1036,7 +1122,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fact_fuente_poai_2024</t>
+          <t>stg_fuente_poai_2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1052,7 +1138,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fact_fuente_poai_2025</t>
+          <t>stg_fuente_poai_2025</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1068,7 +1154,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fact_fuente_regalias</t>
+          <t>stg_fuente_regalias</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1084,14 +1170,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fact_proyectos_estrategias</t>
+          <t>stg_metas_estrategias</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1100,14 +1186,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fact_proyectos_poai_2024</t>
+          <t>stg_metas_poai_2024</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1116,14 +1202,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fact_proyectos_poai_2025</t>
+          <t>stg_metas_poai_2025</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1132,7 +1218,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fact_proyectos_regalias</t>
+          <t>stg_metas_regalias</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1142,6 +1228,70 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>stg_proyectos_estrategias</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>stg_proyectos_poai_2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>stg_proyectos_poai_2025</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>stg_proyectos_regalias</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/transformacion/staging/control_y_depuracion.xlsx
+++ b/transformacion/staging/control_y_depuracion.xlsx
@@ -469,11 +469,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'Actividad del Proyecto': 28, '¿A qué actor va dirigida?': 28, 'Número de Beneficiarios': 28, 'Entrega Dotación (SI / NO)': 28, 'Descripción de la Dotación Entregada': 29, 'Evidencia de la Actividad': 32, 'Evidencia_URL': 32, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre_Proyecto': 26, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 26, '¿A qué actor va dirigida?': 26, 'Número de Beneficiarios': 26, 'Entrega Dotación (SI / NO)': 26, 'Descripción de la Dotación Entregada': 32, 'Evidencia de la Actividad': 34, 'Evidencia_URL': 34, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre_Proyecto': 26, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 64, '¿A qué actor va dirigida?': 67, 'Número de Beneficiarios': 76, 'Entrega Dotación (SI / NO)': 72, 'Descripción de la Dotación Entregada': 85, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre_Proyecto': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'N°': 0, 'Actividad del Proyecto': 0, 'Total Ejecutado': 0, 'Componente PAM': 63, '¿A qué actor va dirigida?': 66, 'Número de Beneficiarios': 76, 'Entrega Dotación (SI / NO)': 70, 'Descripción de la Dotación Entregada': 84, 'Evidencia de la Actividad': 0, 'Evidencia_URL': 0, 'Observaciones Generales': 0, 'Hoja': 0, 'Nombre_Proyecto': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 234, '# Administrativos Beneficiados': 234, '# Docentes Beneficiados': 228, '# Estudiantes Beneficiados': 234, '¿Recibió Asistencia Técnica?': 228, 'Modalidad de la Asistencia Técnica': 234, '¿Recibió Dotación?': 228, 'Dotación Recibida': 228, 'Hoja': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 219, '# Administrativos Beneficiados': 209, '# Docentes Beneficiados': 228, '# Estudiantes Beneficiados': 234, '¿Recibió Asistencia Técnica?': 203, 'Modalidad de la Asistencia Técnica': 234, '¿Recibió Dotación?': 225, 'Dotación Recibida': 228, 'Hoja': 0, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 1616, '# Administrativos Beneficiados': 1692, '# Docentes Beneficiados': 1589, '# Estudiantes Beneficiados': 1871, '¿Recibió Asistencia Técnica?': 1629, 'Modalidad de la Asistencia Técnica': 1629, '¿Recibió Dotación?': 1612, 'Dotación Recibida': 1777, 'Hoja': 0, '# Padres - Madres y Cuidadores': 2061, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
+          <t>{'N°': 0, 'DANE IEO': 0, 'MUNICIO': 0, 'NOMBRE_IEO': 0, '# Directivos Beneficiados': 1605, '# Administrativos Beneficiados': 1691, '# Docentes Beneficiados': 1577, '# Estudiantes Beneficiados': 1870, '¿Recibió Asistencia Técnica?': 1614, 'Modalidad de la Asistencia Técnica': 1614, '¿Recibió Dotación?': 1612, 'Dotación Recibida': 1777, 'Hoja': 0, '# Padres - Madres y Cuidadores': 2056, 'Nombre Proyecto': 0, 'FUENTES': 0, 'PROYECTOS': 0, 'BENEFICIARIOS': 0, 'Unnamed: 4': 0, 'Unnamed: 5': 0}</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'Col1': 14, 'N°': 0, 'Nombre Proyecto': 0, 'Código BPIN': 0, 'Código PI': 0, 'Apropiación Definitiva 2025': 0, 'Adición': 0, 'Total Ejecutado 2025': 0, 'Difrencia \nApro - Ejec': 0, 'Porcentaje de Ejecución': 0, 'RECURSOS': 0, 'Responsable': 2, 'Enlace Técnico': 6, 'ENLACE PROYECTO': 14, 'ENLACE BENEFICIARIOS': 14, 'Documentos del Proyecto': 0, 'IGP': 14, 'Avance en el Cargue de información': 0, 'Hoja': 0}</t>
+          <t>{'Col1': 14, 'N°': 0, 'Nombre Proyecto': 0, 'Código BPIN': 0, 'Código PI': 0, 'Apropiación Definitiva 2025': 0, 'Adición': 0, 'Total Ejecutado 2025': 0, 'Difrencia \nApro - Ejec': 0, 'Porcentaje de Ejecución': 0, 'RECURSOS': 0, 'Responsable': 2, 'Enlace Técnico': 5, 'ENLACE PROYECTO': 14, 'ENLACE BENEFICIARIOS': 14, 'Documentos del Proyecto': 0, 'IGP': 14, 'Avance en el Cargue de información': 0, 'Col19': 14, 'Hoja': 0}</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
